--- a/results Cards to GP.xlsx
+++ b/results Cards to GP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3737" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1376">
   <si>
     <t>Formula</t>
   </si>
@@ -4149,9 +4149,6 @@
   </si>
   <si>
     <t xml:space="preserve">error: Can't find end of central directory : is this a zip file ? If it is, see http://stuk.github.io/jszip/documentation/howto/read_zip.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">error: File not found: ../~$B02-242 Buffered Peptone Water ISO Bulk.xlsx </t>
   </si>
 </sst>
 </file>
@@ -4529,7 +4526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G657"/>
+  <dimension ref="A1:G656"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="20" customWidth="1"/>
@@ -19191,11 +19188,6 @@
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B656" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" t="s">
         <v>1375</v>
       </c>
     </row>
